--- a/다담교육 폴더구조 정리.xlsx
+++ b/다담교육 폴더구조 정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\피씨엔씨_웹퍼블리셔_인수인계\03. 다담교육주문관리시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="181">
   <si>
     <t>css</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,504 +158,545 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_manage.html</t>
   </si>
   <si>
     <t>goods_group_manage.html</t>
   </si>
   <si>
-    <t>상품군 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_regist.html</t>
   </si>
   <si>
-    <t>상품등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stock_manage.html</t>
   </si>
   <si>
-    <t>재고관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_info.html</t>
   </si>
   <si>
-    <t>공지사항 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goods_excel_popup.html</t>
   </si>
   <si>
     <t>stock_notice_popup.html</t>
   </si>
   <si>
+    <t>goods_detail_popup.html</t>
+  </si>
+  <si>
+    <t>order_list.html</t>
+  </si>
+  <si>
+    <t>a_s_list.html</t>
+  </si>
+  <si>
+    <t>a_s_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_list.html</t>
+  </si>
+  <si>
+    <t>waybill_management.html</t>
+  </si>
+  <si>
+    <t>거래원 관리 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_list.html</t>
+  </si>
+  <si>
+    <t>customer_edit.html</t>
+  </si>
+  <si>
+    <t>customer_register.html</t>
+  </si>
+  <si>
+    <t>bill.html</t>
+  </si>
+  <si>
+    <t>branch_list.html</t>
+  </si>
+  <si>
+    <t>branch_sales_list.html</t>
+  </si>
+  <si>
+    <t>branch_edit.html</t>
+  </si>
+  <si>
+    <t>branch_register.html</t>
+  </si>
+  <si>
+    <t>지사 페이지 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문하기 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역조회 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 관리 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_s_request.html</t>
+  </si>
+  <si>
+    <t>book_order.html</t>
+  </si>
+  <si>
+    <t>register_picture.html</t>
+  </si>
+  <si>
+    <t>return_request.html</t>
+  </si>
+  <si>
+    <t>shopping_basket_all.html</t>
+  </si>
+  <si>
+    <t>shopping_basket_choice.html</t>
+  </si>
+  <si>
+    <t>shopping_basket.html</t>
+  </si>
+  <si>
+    <t>main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_sales_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통부분 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header.html</t>
+  </si>
+  <si>
+    <t>관리자 공통 헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_menu_bill.html</t>
+  </si>
+  <si>
+    <t>left_menu_branch.html</t>
+  </si>
+  <si>
+    <t>left_menu_customer.html</t>
+  </si>
+  <si>
+    <t>left_menu_goods.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_menu_manage.html</t>
+  </si>
+  <si>
+    <t>left_menu_notice.html</t>
+  </si>
+  <si>
+    <t>관리자 페이지 공지사항 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 상품관리 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 주문관리 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 거래원관리 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 계산서 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 지사관리 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_branch.html</t>
+  </si>
+  <si>
+    <t>관리자 공통부분 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 공통부분 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_menu_order.html</t>
+  </si>
+  <si>
+    <t>left_menu_view.html</t>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 페이지 거래원 관리 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 페이지 내역조회 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 공통 헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 페이지 공지사항 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 페이지 주문하기 좌측메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+  </si>
+  <si>
+    <t>공통 푸터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin.js</t>
+  </si>
+  <si>
+    <t>branch.js</t>
+  </si>
+  <si>
+    <t>header.js</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>se2.js</t>
+  </si>
+  <si>
+    <t>xlsx.full.min.js</t>
+  </si>
+  <si>
+    <t>se2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트에디터2용 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지용 자바스크립트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사페이지용 자바스크립트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더용 자바스크립트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인용 자바스크립트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트에디터2용 자바스크립트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlsx.core.min.js</t>
+  </si>
+  <si>
+    <t>FileSaver.min.js</t>
+  </si>
+  <si>
+    <t>saveexcel.js</t>
+  </si>
+  <si>
+    <t>tableexport.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableexport.min.js</t>
+  </si>
+  <si>
+    <t>로그인 화면(html/common/login.html)으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheetJS용 자바스크립트 파일
+(엑셀 다운로드, 업로드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 리스트 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 상세보기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 글쓰기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회ㆍ수정 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품군 관리 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고관리 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보 보기 및 수정 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/S 내역 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반품내역 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송장관리 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 리스트 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 매출현황 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 정보 수정 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 신규등록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산서(지사별 매출 내역) 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 리스트 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 매출현황 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 정보 수정 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 신규등록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 상세보기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교재주문(신규주문 리스트) 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/S 접수 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반품신청 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문/배송(전체 주문하기 클릭시) 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문/배송(선택 주문하기 클릭시) 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/S내역 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 리스트 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 매출현황 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 정보 수정 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래원 신규등록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 일괄등록 팝업창(엑셀 업로드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>재고가 100개 미만인 상품 팝업창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goods_detail_popup.html</t>
-  </si>
-  <si>
     <t>상품 상세내역 팝업창(재고현황)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 일괄등록 팝업창(엑셀 업로드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보 보기 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회ㆍ수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_list.html</t>
-  </si>
-  <si>
-    <t>a_s_list.html</t>
-  </si>
-  <si>
-    <t>a_s_list.html</t>
+    <t>사진등록 팝업창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>return_list.html</t>
-  </si>
-  <si>
-    <t>waybill_management.html</t>
-  </si>
-  <si>
-    <t>주문내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A/S 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반품내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>송장관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래원 관리 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_list.html</t>
-  </si>
-  <si>
-    <t>거래원 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래원 매출현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_edit.html</t>
-  </si>
-  <si>
-    <t>거래원 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_register.html</t>
-  </si>
-  <si>
-    <t>거래원 신규등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill.html</t>
-  </si>
-  <si>
-    <t>계산서(지사별 매출 내역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_list.html</t>
-  </si>
-  <si>
-    <t>지사 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_sales_list.html</t>
-  </si>
-  <si>
-    <t>지사 매출현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_edit.html</t>
-  </si>
-  <si>
-    <t>지사 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_register.html</t>
-  </si>
-  <si>
-    <t>지사 신규등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 페이지 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문하기 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내역조회 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래원 관리 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_s_request.html</t>
-  </si>
-  <si>
-    <t>book_order.html</t>
-  </si>
-  <si>
-    <t>register_picture.html</t>
-  </si>
-  <si>
-    <t>return_request.html</t>
-  </si>
-  <si>
-    <t>shopping_basket_all.html</t>
-  </si>
-  <si>
-    <t>shopping_basket_choice.html</t>
-  </si>
-  <si>
-    <t>shopping_basket.html</t>
-  </si>
-  <si>
-    <t>교재주문(신규주문 리스트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A/S 접수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반품신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문/배송(선택 주문하기 클릭시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문/배송(전체 주문하기 클릭시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진등록 팝업창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A/S내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반품내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_sales_list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통부분 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header.html</t>
-  </si>
-  <si>
-    <t>관리자 공통 헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_menu_bill.html</t>
-  </si>
-  <si>
-    <t>left_menu_branch.html</t>
-  </si>
-  <si>
-    <t>left_menu_customer.html</t>
-  </si>
-  <si>
-    <t>left_menu_goods.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_menu_manage.html</t>
-  </si>
-  <si>
-    <t>left_menu_notice.html</t>
-  </si>
-  <si>
-    <t>관리자 페이지 공지사항 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지 상품관리 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지 주문관리 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지 거래원관리 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지 계산서 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 페이지 지사관리 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header_branch.html</t>
-  </si>
-  <si>
-    <t>관리자 공통부분 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 공통부분 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_menu_order.html</t>
-  </si>
-  <si>
-    <t>left_menu_view.html</t>
-  </si>
-  <si>
-    <t>customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 페이지 거래원 관리 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 페이지 내역조회 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 공통 헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 페이지 공지사항 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 페이지 주문하기 좌측메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>footer.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-  </si>
-  <si>
-    <t>공통 푸터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin.js</t>
-  </si>
-  <si>
-    <t>branch.js</t>
-  </si>
-  <si>
-    <t>header.js</t>
-  </si>
-  <si>
-    <t>login.js</t>
-  </si>
-  <si>
-    <t>se2.js</t>
-  </si>
-  <si>
-    <t>xlsx.full.min.js</t>
-  </si>
-  <si>
-    <t>se2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마트에디터2용 폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처음 화면(html/common/login.html으로 이동)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SheetJS용 js 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지용 자바스크립트 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사페이지용 자바스크립트 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더용 자바스크립트 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인용 자바스크립트 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마트에디터2용 자바스크립트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반품내역 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역 팝업창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_popup.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,12 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -883,6 +918,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,34 +1220,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K90"/>
+  <dimension ref="B2:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="2.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1202,7 +1258,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1213,7 +1269,7 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1224,7 +1280,7 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1235,7 +1291,7 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1243,13 +1299,13 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1258,7 +1314,7 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1267,40 +1323,40 @@
       <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1309,95 +1365,95 @@
       <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>35</v>
+      <c r="J12" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>36</v>
+      <c r="J13" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>38</v>
+      <c r="J14" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>40</v>
+      <c r="J15" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>42</v>
+      <c r="J16" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>45</v>
+      <c r="J17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>46</v>
+      <c r="J18" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>48</v>
+      <c r="J19" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1406,104 +1462,104 @@
       <c r="I21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>53</v>
+      <c r="J21" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>55</v>
+      <c r="J22" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>56</v>
+      <c r="J23" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>57</v>
+      <c r="J24" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>139</v>
+      <c r="G26" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>63</v>
+      <c r="J26" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>112</v>
+      <c r="J27" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>66</v>
+      <c r="J28" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.3">
       <c r="I29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>68</v>
+      <c r="J29" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1512,18 +1568,18 @@
       <c r="I31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>71</v>
+      <c r="J31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -1532,578 +1588,617 @@
       <c r="I33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>72</v>
+      <c r="J33" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>74</v>
+      <c r="J34" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>76</v>
+      <c r="J35" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>78</v>
+      <c r="J36" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>110</v>
+      <c r="G38" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="13" t="s">
         <v>31</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>86</v>
+      <c r="G43" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>94</v>
+      <c r="J43" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>93</v>
+      <c r="J44" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>96</v>
+      <c r="J45" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>99</v>
+      <c r="J46" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>97</v>
+      <c r="J47" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="14" t="s">
-        <v>98</v>
+      <c r="J48" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>95</v>
+      <c r="J49" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="F51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="13" t="s">
-        <v>53</v>
+      <c r="J51" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="14" t="s">
-        <v>54</v>
+      <c r="J52" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="13" t="s">
+      <c r="J53" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H56" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>65</v>
+      <c r="J56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>66</v>
+      <c r="J57" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C62" s="1" t="s">
+      <c r="J58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="I63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I64" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>125</v>
+        <v>83</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I65" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>126</v>
+        <v>83</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>124</v>
+        <v>83</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>122</v>
+        <v>83</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G70" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H71" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J72" s="14" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I73" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>148</v>
+        <v>83</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>165</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>166</v>
+        <v>117</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>167</v>
+        <v>117</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>168</v>
+        <v>117</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>169</v>
+        <v>117</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>164</v>
+        <v>117</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E88" s="7"/>
+      <c r="D88" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="19"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="19"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="19"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E90" s="7"/>
+      <c r="D96" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D88:E88"/>
+  <mergeCells count="3">
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="E87:E92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
